--- a/data/trans_orig/P1421-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1421-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>15125</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8926</v>
+        <v>8925</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25437</v>
+        <v>24697</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0319252619619563</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01884087318401834</v>
+        <v>0.01883822552118426</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05369030640851184</v>
+        <v>0.05212837671067026</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -765,19 +765,19 @@
         <v>20197</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12424</v>
+        <v>12938</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30219</v>
+        <v>30841</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06585788832093499</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04050984057273656</v>
+        <v>0.04218671251361207</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09853549708339343</v>
+        <v>0.1005631298110769</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -786,19 +786,19 @@
         <v>35323</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25502</v>
+        <v>25768</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49078</v>
+        <v>49391</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0452590821052458</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0326761685799637</v>
+        <v>0.03301652329816691</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06288416576037878</v>
+        <v>0.06328504230024835</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>458651</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>448339</v>
+        <v>449079</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>464850</v>
+        <v>464851</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9680747380380437</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9463096935914881</v>
+        <v>0.9478716232893293</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9811591268159812</v>
+        <v>0.9811617744788155</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>279</v>
@@ -836,19 +836,19 @@
         <v>286483</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>276461</v>
+        <v>275839</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>294256</v>
+        <v>293742</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.934142111679065</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9014645029166066</v>
+        <v>0.8994368701889229</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9594901594272636</v>
+        <v>0.9578132874863879</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>719</v>
@@ -857,19 +857,19 @@
         <v>745134</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>731379</v>
+        <v>731066</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>754955</v>
+        <v>754689</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9547409178947542</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9371158342396214</v>
+        <v>0.9367149576997515</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9673238314200365</v>
+        <v>0.966983476701833</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>8586</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3881</v>
+        <v>3846</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14744</v>
+        <v>15210</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02339984174659167</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01057685120622668</v>
+        <v>0.0104822905396656</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04018034040404964</v>
+        <v>0.04145138064837978</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -982,19 +982,19 @@
         <v>30046</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21285</v>
+        <v>21024</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41768</v>
+        <v>42145</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08079697589055598</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05723779346862504</v>
+        <v>0.05653750103179996</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1123214337550314</v>
+        <v>0.1133329097539923</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>39</v>
@@ -1003,19 +1003,19 @@
         <v>38632</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28553</v>
+        <v>27555</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52122</v>
+        <v>52126</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05228994232116072</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03864836471388755</v>
+        <v>0.03729643054438402</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07054906412832608</v>
+        <v>0.07055565387890918</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>358348</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>352190</v>
+        <v>351724</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>363053</v>
+        <v>363088</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9766001582534083</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9598196595959501</v>
+        <v>0.9585486193516209</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9894231487937734</v>
+        <v>0.9895177094603345</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>333</v>
@@ -1053,19 +1053,19 @@
         <v>341819</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>330097</v>
+        <v>329720</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>350580</v>
+        <v>350841</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.919203024109444</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8876785662449684</v>
+        <v>0.8866670902460073</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9427622065313748</v>
+        <v>0.9434624989682001</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>674</v>
@@ -1074,19 +1074,19 @@
         <v>700167</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>686677</v>
+        <v>686673</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>710246</v>
+        <v>711244</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9477100576788393</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9294509358716739</v>
+        <v>0.9294443461210909</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9613516352861122</v>
+        <v>0.9627035694556163</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>14766</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8759</v>
+        <v>8418</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23522</v>
+        <v>24533</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0272233344762914</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01614927469007173</v>
+        <v>0.01552078612225914</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04336807441916209</v>
+        <v>0.0452317151858137</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1199,19 +1199,19 @@
         <v>12355</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6913</v>
+        <v>7288</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21081</v>
+        <v>20671</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07363492012561611</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04119977365979763</v>
+        <v>0.04343878797426547</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1256468676796946</v>
+        <v>0.1231996843286793</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -1220,19 +1220,19 @@
         <v>27120</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17863</v>
+        <v>18372</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38182</v>
+        <v>38133</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03818833354585542</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02515300382402455</v>
+        <v>0.02586974690980562</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0537644917483335</v>
+        <v>0.05369510150335095</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>527623</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>518867</v>
+        <v>517856</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>533630</v>
+        <v>533971</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9727766655237086</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9566319255808379</v>
+        <v>0.9547682848141862</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9838507253099282</v>
+        <v>0.9844792138777407</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>152</v>
@@ -1270,19 +1270,19 @@
         <v>155427</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>146701</v>
+        <v>147111</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>160869</v>
+        <v>160494</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9263650798743839</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8743531323203054</v>
+        <v>0.8768003156713209</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9588002263402025</v>
+        <v>0.9565612120257345</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>669</v>
@@ -1291,19 +1291,19 @@
         <v>683051</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>671989</v>
+        <v>672038</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>692308</v>
+        <v>691799</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9618116664541446</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9462355082516662</v>
+        <v>0.946304898496649</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9748469961759754</v>
+        <v>0.9741302530901942</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>28350</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18600</v>
+        <v>19358</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41823</v>
+        <v>41188</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02289371330101328</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01501985741369156</v>
+        <v>0.01563200610937464</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03377399809173146</v>
+        <v>0.03326048760019653</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -1416,19 +1416,19 @@
         <v>44468</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32669</v>
+        <v>32140</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59606</v>
+        <v>59152</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06225541468889391</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04573705762863292</v>
+        <v>0.04499587854288196</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08344846900713047</v>
+        <v>0.08281237316555647</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>71</v>
@@ -1437,19 +1437,19 @@
         <v>72818</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>57096</v>
+        <v>56485</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91946</v>
+        <v>89059</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03729256702128909</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02924070800406931</v>
+        <v>0.02892755635613269</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04708863123177012</v>
+        <v>0.04561001566319851</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1209984</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1196511</v>
+        <v>1197146</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1219734</v>
+        <v>1218976</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9771062866989867</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9662260019082685</v>
+        <v>0.9667395123998044</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9849801425863084</v>
+        <v>0.9843679938906256</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>651</v>
@@ -1487,19 +1487,19 @@
         <v>669817</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>654679</v>
+        <v>655133</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>681616</v>
+        <v>682145</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.937744585311106</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9165515309928697</v>
+        <v>0.9171876268344441</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9542629423713672</v>
+        <v>0.9550041214571182</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1847</v>
@@ -1508,19 +1508,19 @@
         <v>1879802</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1860674</v>
+        <v>1863561</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1895524</v>
+        <v>1896135</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9627074329787109</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9529113687682299</v>
+        <v>0.9543899843368016</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9707592919959308</v>
+        <v>0.9710724436438674</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>8948</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4484</v>
+        <v>3861</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17110</v>
+        <v>18225</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02552470149954007</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01279250925193762</v>
+        <v>0.0110132247552678</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0488076262472136</v>
+        <v>0.05198863147687326</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -1633,19 +1633,19 @@
         <v>31287</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21384</v>
+        <v>21957</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43337</v>
+        <v>45034</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05501062012373076</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03759806310459703</v>
+        <v>0.03860482787076725</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07619584093668892</v>
+        <v>0.07918095364132868</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>37</v>
@@ -1654,19 +1654,19 @@
         <v>40235</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>29458</v>
+        <v>28904</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>55054</v>
+        <v>54776</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0437668866243696</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03204331525050266</v>
+        <v>0.03144156610654109</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05988643369069433</v>
+        <v>0.05958425875398379</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>341607</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>333445</v>
+        <v>332330</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>346071</v>
+        <v>346694</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9744752985004599</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9511923737527864</v>
+        <v>0.9480113685231267</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9872074907480624</v>
+        <v>0.9889867752447322</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>510</v>
@@ -1704,19 +1704,19 @@
         <v>537465</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>525415</v>
+        <v>523718</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>547368</v>
+        <v>546795</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9449893798762692</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.923804159063311</v>
+        <v>0.9208190463586708</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9624019368954029</v>
+        <v>0.9613951721292328</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>842</v>
@@ -1725,19 +1725,19 @@
         <v>879072</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>864253</v>
+        <v>864531</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>889849</v>
+        <v>890403</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9562331133756304</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9401135663093058</v>
+        <v>0.9404157412460162</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9679566847494973</v>
+        <v>0.9685584338934587</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>2696</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6911</v>
+        <v>7966</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009042456326868896</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002826121773894476</v>
+        <v>0.002830672631780163</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02317585662256621</v>
+        <v>0.0267151986180385</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>56</v>
@@ -1850,19 +1850,19 @@
         <v>56547</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>43134</v>
+        <v>43627</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72904</v>
+        <v>75124</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04528265978476446</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03454158919265311</v>
+        <v>0.03493629081722974</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05838100152921107</v>
+        <v>0.06015923325471285</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>59</v>
@@ -1871,19 +1871,19 @@
         <v>59244</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>44940</v>
+        <v>46102</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>76535</v>
+        <v>76159</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03829679982122595</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02905038856691552</v>
+        <v>0.02980165271771615</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04947473869405411</v>
+        <v>0.04923150255998475</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>295505</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>291290</v>
+        <v>290235</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>297358</v>
+        <v>297357</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9909575436731312</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9768241433774337</v>
+        <v>0.9732848013819613</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9971738782261055</v>
+        <v>0.9971693273682198</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1182</v>
@@ -1921,19 +1921,19 @@
         <v>1192213</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1175856</v>
+        <v>1173636</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1205626</v>
+        <v>1205133</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9547173402152356</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.941618998470789</v>
+        <v>0.9398407667452867</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.965458410807347</v>
+        <v>0.9650637091827703</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1485</v>
@@ -1942,19 +1942,19 @@
         <v>1487716</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1470425</v>
+        <v>1470801</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1502020</v>
+        <v>1500858</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9617032001787741</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9505252613059468</v>
+        <v>0.9507684974400149</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9709496114330848</v>
+        <v>0.9701983472822837</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>78472</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>61959</v>
+        <v>62884</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>97934</v>
+        <v>97913</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02399604832274529</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01894657166187761</v>
+        <v>0.019229411155015</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0299475951941417</v>
+        <v>0.02994119814098658</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>189</v>
@@ -2067,19 +2067,19 @@
         <v>194900</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>170652</v>
+        <v>168598</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>223175</v>
+        <v>222791</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0576947935042166</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05051687289780588</v>
+        <v>0.04990890747089952</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06606478700232868</v>
+        <v>0.06595103206895579</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>267</v>
@@ -2088,19 +2088,19 @@
         <v>273372</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>242395</v>
+        <v>242718</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>306984</v>
+        <v>305986</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04111896704027267</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03645965940922929</v>
+        <v>0.03650816512365132</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0461747330746285</v>
+        <v>0.04602464529367484</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3191718</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3172256</v>
+        <v>3172277</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3208231</v>
+        <v>3207306</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9760039516772547</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9700524048058584</v>
+        <v>0.9700588018590132</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9810534283381225</v>
+        <v>0.9807705888449849</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3107</v>
@@ -2138,19 +2138,19 @@
         <v>3183224</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3154949</v>
+        <v>3155333</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3207472</v>
+        <v>3209526</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9423052064957834</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9339352129976715</v>
+        <v>0.9340489679310443</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9494831271021942</v>
+        <v>0.9500910925291005</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6236</v>
@@ -2159,19 +2159,19 @@
         <v>6374942</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6341330</v>
+        <v>6342328</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6405919</v>
+        <v>6405596</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9588810329597274</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9538252669253715</v>
+        <v>0.9539753547063248</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9635403405907706</v>
+        <v>0.9634918348763486</v>
       </c>
     </row>
     <row r="24">
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11211</v>
+        <v>12344</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006763663296232764</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02564290979612616</v>
+        <v>0.02823276837337928</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -2526,19 +2526,19 @@
         <v>22710</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14843</v>
+        <v>14794</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33074</v>
+        <v>33770</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07222064360632895</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04720367210898613</v>
+        <v>0.04704552697395033</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1051791699887784</v>
+        <v>0.107393146583077</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -2547,19 +2547,19 @@
         <v>25667</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16497</v>
+        <v>17748</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37016</v>
+        <v>36700</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03414717191489724</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02194763969099192</v>
+        <v>0.0236119037799502</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04924548526362151</v>
+        <v>0.04882443254845055</v>
       </c>
     </row>
     <row r="5">
@@ -2576,7 +2576,7 @@
         <v>434254</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>426000</v>
+        <v>424867</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>437211</v>
@@ -2585,7 +2585,7 @@
         <v>0.9932363367037672</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9743570902038743</v>
+        <v>0.971767231626621</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2597,19 +2597,19 @@
         <v>291744</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>281380</v>
+        <v>280684</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>299611</v>
+        <v>299660</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.927779356393671</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8948208300112217</v>
+        <v>0.8926068534169229</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9527963278910141</v>
+        <v>0.9529544730260496</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>662</v>
@@ -2618,19 +2618,19 @@
         <v>725998</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>714649</v>
+        <v>714965</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>735168</v>
+        <v>733917</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9658528280851028</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9507545147363784</v>
+        <v>0.9511755674515494</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9780523603090081</v>
+        <v>0.9763880962200499</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>4114</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1056</v>
+        <v>1138</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9552</v>
+        <v>10199</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009822381886827523</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002520869523197122</v>
+        <v>0.002717689353594698</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0228075158089358</v>
+        <v>0.02435377866863158</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -2743,19 +2743,19 @@
         <v>15673</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8827</v>
+        <v>8896</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25157</v>
+        <v>26202</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04636698273641277</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02611383784709853</v>
+        <v>0.02631747174196648</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0744256171810347</v>
+        <v>0.07751730709334136</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -2764,19 +2764,19 @@
         <v>19786</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11925</v>
+        <v>12119</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30879</v>
+        <v>32712</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02614419634956405</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01575634083802515</v>
+        <v>0.01601329745303837</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04080150434379967</v>
+        <v>0.04322361470595639</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>414683</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>409245</v>
+        <v>408598</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>417741</v>
+        <v>417659</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9901776181131725</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9771924841910643</v>
+        <v>0.9756462213313684</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9974791304768028</v>
+        <v>0.9972823106464053</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>291</v>
@@ -2814,19 +2814,19 @@
         <v>322338</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>312854</v>
+        <v>311809</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>329184</v>
+        <v>329115</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9536330172635872</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9255743828189652</v>
+        <v>0.9224826929066586</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9738861621529015</v>
+        <v>0.9736825282580335</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>662</v>
@@ -2835,19 +2835,19 @@
         <v>737022</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>725929</v>
+        <v>724096</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>744883</v>
+        <v>744689</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.973855803650436</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9591984956562003</v>
+        <v>0.956776385294043</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9842436591619749</v>
+        <v>0.9839867025469616</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>8781</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4342</v>
+        <v>4654</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16180</v>
+        <v>16294</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01397318611697783</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006910300339025454</v>
+        <v>0.007406211903002492</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02574814869697327</v>
+        <v>0.02593071477496565</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -2960,19 +2960,19 @@
         <v>14959</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8422</v>
+        <v>8834</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23944</v>
+        <v>25468</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05750620103293899</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03237768765084661</v>
+        <v>0.03395949246032078</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09204586993345923</v>
+        <v>0.09790596518289195</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -2981,19 +2981,19 @@
         <v>23740</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15528</v>
+        <v>14898</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36116</v>
+        <v>36300</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02671830866600353</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01747660469610501</v>
+        <v>0.01676722613919055</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04064721883609441</v>
+        <v>0.04085481589569013</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>619604</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>612205</v>
+        <v>612091</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>624043</v>
+        <v>623731</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9860268138830222</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9742518513030267</v>
+        <v>0.9740692852250341</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.993089699660974</v>
+        <v>0.9925937880969975</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>230</v>
@@ -3031,19 +3031,19 @@
         <v>245170</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>236185</v>
+        <v>234661</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>251707</v>
+        <v>251295</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.942493798967061</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9079541300665404</v>
+        <v>0.902094034817108</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9676223123491524</v>
+        <v>0.9660405075396792</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>811</v>
@@ -3052,19 +3052,19 @@
         <v>864774</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>852398</v>
+        <v>852214</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>872986</v>
+        <v>873616</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9732816913339964</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9593527811639057</v>
+        <v>0.95914518410431</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.982523395303895</v>
+        <v>0.9832327738608094</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>16282</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9395</v>
+        <v>9669</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24924</v>
+        <v>26101</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0140480590871714</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008106266375368879</v>
+        <v>0.00834284637145298</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02150434565969522</v>
+        <v>0.02252027707089097</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -3177,19 +3177,19 @@
         <v>38564</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27332</v>
+        <v>27324</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52948</v>
+        <v>51832</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05042891493395912</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03574119036893975</v>
+        <v>0.03573026285044801</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06923783431874955</v>
+        <v>0.06777953068899828</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>52</v>
@@ -3198,19 +3198,19 @@
         <v>54846</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>41570</v>
+        <v>41004</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>71590</v>
+        <v>71290</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02851018579631301</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02160888257485662</v>
+        <v>0.02131503500616803</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03721440138214649</v>
+        <v>0.03705818798089985</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1142727</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1134085</v>
+        <v>1132908</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1149614</v>
+        <v>1149340</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9859519409128286</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9784956543403046</v>
+        <v>0.9774797229291088</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9918937336246311</v>
+        <v>0.991657153628547</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>674</v>
@@ -3248,19 +3248,19 @@
         <v>726158</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>711774</v>
+        <v>712890</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>737390</v>
+        <v>737398</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9495710850660409</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9307621656812505</v>
+        <v>0.9322204693110018</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9642588096310604</v>
+        <v>0.9642697371495521</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1741</v>
@@ -3269,19 +3269,19 @@
         <v>1868885</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1852141</v>
+        <v>1852441</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1882161</v>
+        <v>1882727</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.971489814203687</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9627855986178535</v>
+        <v>0.9629418120191001</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9783911174251434</v>
+        <v>0.978684964993832</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>5869</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1917</v>
+        <v>2136</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12016</v>
+        <v>13076</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01149488737057663</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003754527423209628</v>
+        <v>0.00418330708284595</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02353245061344773</v>
+        <v>0.02561019847967447</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -3394,19 +3394,19 @@
         <v>49784</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36915</v>
+        <v>38610</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>65155</v>
+        <v>66764</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06548360931758683</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04855718898868314</v>
+        <v>0.05078623226408657</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08570244663768956</v>
+        <v>0.08781916706001923</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -3415,19 +3415,19 @@
         <v>55653</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43616</v>
+        <v>42069</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>73014</v>
+        <v>72465</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04379214178228685</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03432066949147324</v>
+        <v>0.03310357148444824</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05745339835736693</v>
+        <v>0.0570209656738493</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>504727</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>498580</v>
+        <v>497520</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>508679</v>
+        <v>508460</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9885051126294233</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9764675493865522</v>
+        <v>0.9743898015203266</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9962454725767904</v>
+        <v>0.9958166929171542</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>656</v>
@@ -3465,19 +3465,19 @@
         <v>710462</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>695091</v>
+        <v>693482</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>723331</v>
+        <v>721636</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9345163906824132</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9142975533623101</v>
+        <v>0.9121808329399806</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9514428110113167</v>
+        <v>0.9492137677359134</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1137</v>
@@ -3486,19 +3486,19 @@
         <v>1215190</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1197829</v>
+        <v>1198378</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1227227</v>
+        <v>1228774</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9562078582177131</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9425466016426333</v>
+        <v>0.9429790343261507</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9656793305085268</v>
+        <v>0.9668964285155519</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>3284</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>950</v>
+        <v>972</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10310</v>
+        <v>9202</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0123050760625103</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003559765571032953</v>
+        <v>0.003642142734635463</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03863130691938704</v>
+        <v>0.03448063270737671</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -3611,19 +3611,19 @@
         <v>47097</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35687</v>
+        <v>35332</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>64383</v>
+        <v>63057</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04245462868078522</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03216966762302397</v>
+        <v>0.03184951860623637</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05803690939387633</v>
+        <v>0.05684178640656291</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>46</v>
@@ -3632,7 +3632,7 @@
         <v>50381</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>37207</v>
+        <v>37912</v>
       </c>
       <c r="T19" s="5" t="n">
         <v>65845</v>
@@ -3641,10 +3641,10 @@
         <v>0.0366079663689717</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02703517293948489</v>
+        <v>0.02754733339544523</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04784416485012908</v>
+        <v>0.04784427416535791</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>263598</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>256572</v>
+        <v>257680</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265932</v>
+        <v>265910</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9876949239374897</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9613686930806091</v>
+        <v>0.9655193672926248</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.996440234428967</v>
+        <v>0.9963578572653645</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1001</v>
@@ -3682,19 +3682,19 @@
         <v>1062254</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1044968</v>
+        <v>1046294</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1073664</v>
+        <v>1074019</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9575453713192148</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9419630906061237</v>
+        <v>0.9431582135934372</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.967830332376976</v>
+        <v>0.9681504813937636</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1263</v>
@@ -3706,16 +3706,16 @@
         <v>1310388</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1339026</v>
+        <v>1338321</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9633920336310283</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9521558351498709</v>
+        <v>0.9521557258346421</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9729648270605152</v>
+        <v>0.9724526666045548</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>41286</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29864</v>
+        <v>30069</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55934</v>
+        <v>56214</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01206892610050179</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008729977686588595</v>
+        <v>0.008789855148001471</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01635082704171998</v>
+        <v>0.0164326194697243</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>176</v>
@@ -3828,19 +3828,19 @@
         <v>188787</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>161956</v>
+        <v>161140</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>215795</v>
+        <v>216205</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05322557696312535</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04566101014941246</v>
+        <v>0.04543092583758795</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06084023260865852</v>
+        <v>0.06095565903989841</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>216</v>
@@ -3849,19 +3849,19 @@
         <v>230073</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>200538</v>
+        <v>204547</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>262300</v>
+        <v>267707</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03301947688134393</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02878075587829378</v>
+        <v>0.02935610228424589</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03764469687979286</v>
+        <v>0.03842058666751264</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3379594</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3364946</v>
+        <v>3364666</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3391016</v>
+        <v>3390811</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9879310738994982</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.98364917295828</v>
+        <v>0.9835673805302759</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9912700223134117</v>
+        <v>0.9912101448519985</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3112</v>
@@ -3899,19 +3899,19 @@
         <v>3358128</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3331120</v>
+        <v>3330710</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3384959</v>
+        <v>3385775</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9467744230368746</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9391597673913411</v>
+        <v>0.9390443409601016</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9543389898505875</v>
+        <v>0.954569074162412</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6276</v>
@@ -3920,19 +3920,19 @@
         <v>6737721</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6705494</v>
+        <v>6700087</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6767256</v>
+        <v>6763247</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9669805231186561</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9623553031202073</v>
+        <v>0.9615794133324875</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9712192441217062</v>
+        <v>0.9706438977157541</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>13247</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7588</v>
+        <v>7216</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21628</v>
+        <v>21641</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03087251520581053</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01768287552670302</v>
+        <v>0.01681802487401237</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05040319706887968</v>
+        <v>0.05043329050416127</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -4287,19 +4287,19 @@
         <v>12736</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6622</v>
+        <v>6931</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21070</v>
+        <v>21820</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03669632231272149</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01907951938526315</v>
+        <v>0.01997120753408634</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06071008788967463</v>
+        <v>0.06287111538279733</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -4308,19 +4308,19 @@
         <v>25983</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16949</v>
+        <v>17134</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37615</v>
+        <v>37952</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03347663665105408</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02183701457895191</v>
+        <v>0.02207630393827871</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04846431045327423</v>
+        <v>0.0488978657115105</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>415845</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>407464</v>
+        <v>407451</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>421504</v>
+        <v>421876</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9691274847941894</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9495968029311203</v>
+        <v>0.9495667094958387</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9823171244732969</v>
+        <v>0.9831819751259876</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>320</v>
@@ -4358,19 +4358,19 @@
         <v>334319</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>325985</v>
+        <v>325235</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>340433</v>
+        <v>340124</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9633036776872785</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9392899121103251</v>
+        <v>0.9371288846172038</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9809204806147368</v>
+        <v>0.9800287924659137</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>703</v>
@@ -4379,19 +4379,19 @@
         <v>750164</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>738532</v>
+        <v>738195</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>759198</v>
+        <v>759013</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.966523363348946</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.951535689546726</v>
+        <v>0.9511021342884893</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9781629854210483</v>
+        <v>0.9779236960617211</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>2946</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8444</v>
+        <v>7957</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007810065536324106</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002492343106854819</v>
+        <v>0.002489103186468064</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02238450057010917</v>
+        <v>0.02109323709796503</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -4504,19 +4504,19 @@
         <v>19246</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11939</v>
+        <v>12095</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30013</v>
+        <v>30442</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05169843815019152</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03206954242886163</v>
+        <v>0.03248985629297865</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08062136459579906</v>
+        <v>0.08177344648241863</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -4525,19 +4525,19 @@
         <v>22192</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13979</v>
+        <v>13995</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33560</v>
+        <v>35082</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02960921453794572</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01865113542381533</v>
+        <v>0.0186719259966322</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04477689408288129</v>
+        <v>0.04680678789238954</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>374281</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>368783</v>
+        <v>369270</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>376287</v>
+        <v>376288</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9921899344636759</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9776154994298909</v>
+        <v>0.978906762902035</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9975076568931451</v>
+        <v>0.997510896813532</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>335</v>
@@ -4575,19 +4575,19 @@
         <v>353027</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>342260</v>
+        <v>341831</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>360334</v>
+        <v>360178</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9483015618498085</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9193786354042008</v>
+        <v>0.9182265535175813</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9679304575711384</v>
+        <v>0.9675101437070213</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>686</v>
@@ -4596,19 +4596,19 @@
         <v>727308</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>715940</v>
+        <v>714418</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>735521</v>
+        <v>735505</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9703907854620543</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9552231059171188</v>
+        <v>0.953193212107611</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9813488645761848</v>
+        <v>0.9813280740033679</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>4552</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1145</v>
+        <v>1235</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11089</v>
+        <v>11405</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00872189530374882</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00219412405105524</v>
+        <v>0.002366552498266247</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02124718578704717</v>
+        <v>0.02185134250362267</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -4721,19 +4721,19 @@
         <v>12110</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6100</v>
+        <v>6597</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20641</v>
+        <v>20059</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07289598193474123</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03672098658252736</v>
+        <v>0.03971093362740925</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1242508104940381</v>
+        <v>0.1207477304194512</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -4742,19 +4742,19 @@
         <v>16662</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9755</v>
+        <v>9736</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26800</v>
+        <v>27859</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02421639203943123</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01417748042565129</v>
+        <v>0.01414971045127468</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03895088909551284</v>
+        <v>0.0404899775325722</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>517362</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>510825</v>
+        <v>510509</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>520769</v>
+        <v>520679</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9912781046962512</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9787528142129536</v>
+        <v>0.9781486574963772</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9978058759489448</v>
+        <v>0.9976334475017338</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>142</v>
@@ -4792,19 +4792,19 @@
         <v>154013</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>145482</v>
+        <v>146064</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>160023</v>
+        <v>159526</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9271040180652588</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8757491895059619</v>
+        <v>0.8792522695805488</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9632790134174727</v>
+        <v>0.9602890663725908</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>640</v>
@@ -4813,19 +4813,19 @@
         <v>671374</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>661236</v>
+        <v>660177</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>678281</v>
+        <v>678300</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9757836079605687</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9610491109044869</v>
+        <v>0.9595100224674283</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9858225195743486</v>
+        <v>0.9858502895487253</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>10116</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4934</v>
+        <v>4878</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18918</v>
+        <v>19614</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008798862583885026</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004291593245164196</v>
+        <v>0.004243375850536346</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01645592853704882</v>
+        <v>0.0170609517073864</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -4938,19 +4938,19 @@
         <v>42144</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30542</v>
+        <v>31376</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55079</v>
+        <v>55440</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0510298544043654</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03698074747432202</v>
+        <v>0.03799092201875694</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0666913165998614</v>
+        <v>0.06712903712986382</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>50</v>
@@ -4959,19 +4959,19 @@
         <v>52260</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38728</v>
+        <v>38716</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>67522</v>
+        <v>67767</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02645378812346964</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01960384307803155</v>
+        <v>0.0195976971798804</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03417951225398707</v>
+        <v>0.03430354254937099</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1139522</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1130720</v>
+        <v>1130024</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1144704</v>
+        <v>1144760</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9912011374161149</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.983544071462951</v>
+        <v>0.9829390482926137</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9957084067548357</v>
+        <v>0.9957566241494638</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>757</v>
@@ -5009,19 +5009,19 @@
         <v>783732</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>770797</v>
+        <v>770436</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>795334</v>
+        <v>794500</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9489701455956346</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9333086834001386</v>
+        <v>0.9328709628701362</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.963019252525678</v>
+        <v>0.962009077981243</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1851</v>
@@ -5030,19 +5030,19 @@
         <v>1923254</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1907992</v>
+        <v>1907747</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1936786</v>
+        <v>1936798</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9735462118765303</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.965820487746013</v>
+        <v>0.9656964574506289</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9803961569219685</v>
+        <v>0.9804023028201195</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>14989</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8476</v>
+        <v>8371</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24934</v>
+        <v>25452</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02414902632123921</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01365604212779857</v>
+        <v>0.01348559815171553</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04017065094188176</v>
+        <v>0.04100537490702206</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -5155,19 +5155,19 @@
         <v>54196</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>40394</v>
+        <v>40688</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69675</v>
+        <v>70181</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0734125229360876</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05471602496754861</v>
+        <v>0.05511430430901457</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09437880241272717</v>
+        <v>0.0950653961086147</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>63</v>
@@ -5176,19 +5176,19 @@
         <v>69186</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>54310</v>
+        <v>53357</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>87066</v>
+        <v>90324</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05091122279786985</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0399645199365944</v>
+        <v>0.03926344280964548</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06406835495090192</v>
+        <v>0.06646595162489952</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>605717</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>595772</v>
+        <v>595254</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>612230</v>
+        <v>612335</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9758509736787608</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9598293490581182</v>
+        <v>0.9589946250929779</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9863439578722014</v>
+        <v>0.9865144018482844</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>651</v>
@@ -5226,19 +5226,19 @@
         <v>684048</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>668569</v>
+        <v>668063</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>697850</v>
+        <v>697556</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9265874770639124</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.905621197587273</v>
+        <v>0.9049346038913851</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9452839750324514</v>
+        <v>0.944885695690985</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1233</v>
@@ -5247,19 +5247,19 @@
         <v>1289764</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1271884</v>
+        <v>1268626</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1304640</v>
+        <v>1305593</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9490887772021301</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9359316450490981</v>
+        <v>0.9335340483751002</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9600354800634056</v>
+        <v>0.9607365571903546</v>
       </c>
     </row>
     <row r="18">
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7144</v>
+        <v>6490</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007051936034344337</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02488111633829936</v>
+        <v>0.0226007418691695</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>48</v>
@@ -5372,19 +5372,19 @@
         <v>53057</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>38482</v>
+        <v>40772</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69045</v>
+        <v>68276</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04903492855177909</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03556443362531833</v>
+        <v>0.03768156549037651</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06381106364807931</v>
+        <v>0.06310051156242474</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>50</v>
@@ -5393,19 +5393,19 @@
         <v>55082</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41224</v>
+        <v>41285</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71968</v>
+        <v>69871</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04023016904072784</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03010885909510673</v>
+        <v>0.03015362685282135</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05256317776206976</v>
+        <v>0.05103138490361574</v>
       </c>
     </row>
     <row r="20">
@@ -5422,7 +5422,7 @@
         <v>285120</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>280001</v>
+        <v>280655</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -5431,7 +5431,7 @@
         <v>0.9929480639656557</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9751188836617006</v>
+        <v>0.9773992581308302</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5443,19 +5443,19 @@
         <v>1028968</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1012980</v>
+        <v>1013749</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1043543</v>
+        <v>1041253</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.950965071448221</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9361889363519205</v>
+        <v>0.9368994884375751</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9644355663746814</v>
+        <v>0.9623184345096235</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1214</v>
@@ -5464,19 +5464,19 @@
         <v>1314088</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1297202</v>
+        <v>1299299</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1327946</v>
+        <v>1327885</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9597698309592722</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9474368222379304</v>
+        <v>0.9489686150963829</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9698911409048933</v>
+        <v>0.9698463731471784</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>47875</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35263</v>
+        <v>36327</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>62077</v>
+        <v>63102</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01414034503306658</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01041527053530659</v>
+        <v>0.01072945302610727</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01833501605307372</v>
+        <v>0.01863758251900686</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>177</v>
@@ -5589,19 +5589,19 @@
         <v>193489</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>167678</v>
+        <v>164725</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>223073</v>
+        <v>223737</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05478797082557158</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04747927184947558</v>
+        <v>0.04664335481305885</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06316481427402104</v>
+        <v>0.06335284114935021</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>223</v>
@@ -5610,19 +5610,19 @@
         <v>241364</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>210038</v>
+        <v>209735</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>275844</v>
+        <v>271388</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0348927503037027</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03036412740137433</v>
+        <v>0.03032032266610583</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03987729194254017</v>
+        <v>0.03923309390696465</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3337847</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3323645</v>
+        <v>3322620</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3350459</v>
+        <v>3349395</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9858596549669334</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9816649839469264</v>
+        <v>0.9813624174809932</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9895847294646934</v>
+        <v>0.9892705469738927</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3149</v>
@@ -5660,19 +5660,19 @@
         <v>3338107</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3308523</v>
+        <v>3307859</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3363918</v>
+        <v>3366871</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9452120291744284</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.936835185725979</v>
+        <v>0.9366471588506499</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9525207281505244</v>
+        <v>0.9533566451869412</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6327</v>
@@ -5681,19 +5681,19 @@
         <v>6675954</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6641474</v>
+        <v>6645930</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6707280</v>
+        <v>6707583</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9651072496962974</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9601227080574598</v>
+        <v>0.9607669060930353</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9696358725986255</v>
+        <v>0.969679677333894</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>27627</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18761</v>
+        <v>18264</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38943</v>
+        <v>38220</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05017472662807396</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03407297277420303</v>
+        <v>0.03316980019337294</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07072538458700103</v>
+        <v>0.06941232424247842</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -6048,19 +6048,19 @@
         <v>46198</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35458</v>
+        <v>35067</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59844</v>
+        <v>58894</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09458818784281986</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07259857102186082</v>
+        <v>0.07179850449545057</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1225271322153715</v>
+        <v>0.1205821416673872</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>93</v>
@@ -6069,19 +6069,19 @@
         <v>73825</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60364</v>
+        <v>60189</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>91386</v>
+        <v>90102</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.07105192520523722</v>
+        <v>0.07105192520523723</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05809635918869972</v>
+        <v>0.05792839471651673</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08795302757731559</v>
+        <v>0.08671789684845688</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>522991</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>511675</v>
+        <v>512398</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>531857</v>
+        <v>532354</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9498252733719261</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9292746154129976</v>
+        <v>0.9305876757575218</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9659270272257968</v>
+        <v>0.9668301998066271</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>623</v>
@@ -6119,19 +6119,19 @@
         <v>442213</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>428567</v>
+        <v>429517</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>452953</v>
+        <v>453344</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9054118121571801</v>
+        <v>0.9054118121571803</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8774728677846286</v>
+        <v>0.8794178583326129</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9274014289781393</v>
+        <v>0.9282014955045494</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1147</v>
@@ -6140,19 +6140,19 @@
         <v>965204</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>947643</v>
+        <v>948927</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>978665</v>
+        <v>978840</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9289480747947629</v>
+        <v>0.9289480747947627</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9120469724226842</v>
+        <v>0.9132821031515431</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9419036408113002</v>
+        <v>0.9420716052834832</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>16001</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9456</v>
+        <v>9210</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25073</v>
+        <v>26060</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03311319266060985</v>
+        <v>0.03311319266060984</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01956823042498154</v>
+        <v>0.01906014014486438</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0518875383184706</v>
+        <v>0.0539305287649696</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -6265,19 +6265,19 @@
         <v>45526</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36373</v>
+        <v>35934</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>57000</v>
+        <v>58732</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1077563819673988</v>
+        <v>0.1077563819673989</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08609170388298498</v>
+        <v>0.08505318594556642</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1349144573931151</v>
+        <v>0.139013548633117</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>84</v>
@@ -6286,19 +6286,19 @@
         <v>61527</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49550</v>
+        <v>49130</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>75910</v>
+        <v>75294</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06793266577965817</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05470895569051776</v>
+        <v>0.05424499426592301</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0838132806232072</v>
+        <v>0.08313292632009578</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>467211</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>458139</v>
+        <v>457152</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>473756</v>
+        <v>474002</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9668868073393903</v>
+        <v>0.9668868073393901</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9481124616815293</v>
+        <v>0.9460694712350304</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9804317695750184</v>
+        <v>0.9809398598551354</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>521</v>
@@ -6336,19 +6336,19 @@
         <v>376966</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>365492</v>
+        <v>363760</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>386119</v>
+        <v>386558</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8922436180326011</v>
+        <v>0.8922436180326012</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.865085542606885</v>
+        <v>0.8609864513668829</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.913908296117015</v>
+        <v>0.9149468140544337</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>986</v>
@@ -6357,19 +6357,19 @@
         <v>844177</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>829794</v>
+        <v>830410</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>856154</v>
+        <v>856574</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9320673342203418</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9161867193767927</v>
+        <v>0.9168670736799044</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9452910443094821</v>
+        <v>0.945755005734077</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>22145</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13866</v>
+        <v>14052</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34764</v>
+        <v>35097</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04704198241664281</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02945485044723281</v>
+        <v>0.02985105534684975</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07385024377167083</v>
+        <v>0.07455565774046759</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -6482,19 +6482,19 @@
         <v>26792</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20231</v>
+        <v>18800</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36820</v>
+        <v>34636</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1428929212350806</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1078984583789787</v>
+        <v>0.1002664451643414</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1963781450352355</v>
+        <v>0.1847307428293786</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -6503,19 +6503,19 @@
         <v>48937</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36990</v>
+        <v>37165</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62059</v>
+        <v>62811</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0743447460759304</v>
+        <v>0.07434474607593039</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05619521776667936</v>
+        <v>0.05646063051483995</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09427954363410242</v>
+        <v>0.09542285051101559</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>448598</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>435979</v>
+        <v>435646</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>456877</v>
+        <v>456691</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9529580175833573</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9261497562283295</v>
+        <v>0.9254443422595325</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9705451495527673</v>
+        <v>0.9701489446531504</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>247</v>
@@ -6553,19 +6553,19 @@
         <v>160705</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>150677</v>
+        <v>152861</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>167266</v>
+        <v>168697</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8571070787649194</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8036218549647647</v>
+        <v>0.8152692571706213</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8921015416210212</v>
+        <v>0.8997335548356589</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>714</v>
@@ -6574,19 +6574,19 @@
         <v>609304</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>596182</v>
+        <v>595430</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>621251</v>
+        <v>621076</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9256552539240694</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9057204563658973</v>
+        <v>0.9045771494889839</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9438047822333208</v>
+        <v>0.9435393694851599</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>51328</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38810</v>
+        <v>38181</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>68097</v>
+        <v>66897</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04534907330263527</v>
+        <v>0.04534907330263526</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03428915682154538</v>
+        <v>0.0337334740340224</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06016445003390138</v>
+        <v>0.05910407869129747</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>145</v>
@@ -6699,19 +6699,19 @@
         <v>103887</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>87949</v>
+        <v>87435</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>122420</v>
+        <v>119497</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1206288617856834</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.102122895087644</v>
+        <v>0.1015259376327816</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1421483347247526</v>
+        <v>0.1387543791655554</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>199</v>
@@ -6720,19 +6720,19 @@
         <v>155215</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>132821</v>
+        <v>131905</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>178115</v>
+        <v>176221</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07787794952436188</v>
+        <v>0.0778779495243619</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06664171397709957</v>
+        <v>0.06618238268673859</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08936808245479408</v>
+        <v>0.08841737951709583</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1080515</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1063746</v>
+        <v>1064946</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1093033</v>
+        <v>1093662</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9546509266973646</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9398355499660987</v>
+        <v>0.9408959213087021</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9657108431784549</v>
+        <v>0.9662665259659773</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1085</v>
@@ -6770,19 +6770,19 @@
         <v>757324</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>738791</v>
+        <v>741714</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>773262</v>
+        <v>773776</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8793711382143168</v>
+        <v>0.8793711382143166</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8578516652752456</v>
+        <v>0.8612456208344442</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8978771049123556</v>
+        <v>0.8984740623672183</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2149</v>
@@ -6791,19 +6791,19 @@
         <v>1837839</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1814939</v>
+        <v>1816833</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1860233</v>
+        <v>1861149</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9221220504756381</v>
+        <v>0.9221220504756382</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9106319175452057</v>
+        <v>0.9115826204829042</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9333582860229002</v>
+        <v>0.9338176173132615</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>27707</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17753</v>
+        <v>18468</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39726</v>
+        <v>41661</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04901814871294268</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03140879965671433</v>
+        <v>0.03267279192302838</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07028120366081932</v>
+        <v>0.0737054246510193</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>181</v>
@@ -6916,19 +6916,19 @@
         <v>110227</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>95133</v>
+        <v>96017</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>126948</v>
+        <v>128198</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.133025266361478</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1148096213036123</v>
+        <v>0.1158768222243063</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1532046226895241</v>
+        <v>0.1547139442157219</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>207</v>
@@ -6937,19 +6937,19 @@
         <v>137934</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>119087</v>
+        <v>117538</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>157257</v>
+        <v>156660</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09895850838524116</v>
+        <v>0.09895850838524117</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.085437492495054</v>
+        <v>0.08432570650923808</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1128215814139395</v>
+        <v>0.1123933905465305</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>537531</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>525512</v>
+        <v>523577</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>547485</v>
+        <v>546770</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.950981851287057</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9297187963391812</v>
+        <v>0.9262945753489807</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9685912003432857</v>
+        <v>0.9673272080769718</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1106</v>
@@ -6987,19 +6987,19 @@
         <v>718388</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>701667</v>
+        <v>700417</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>733482</v>
+        <v>732598</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8669747336385218</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8467953773104758</v>
+        <v>0.8452860557842781</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8851903786963877</v>
+        <v>0.8841231777756937</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1625</v>
@@ -7008,19 +7008,19 @@
         <v>1255919</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1236596</v>
+        <v>1237193</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1274766</v>
+        <v>1276315</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9010414916147589</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8871784185860606</v>
+        <v>0.8876066094534695</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9145625075049459</v>
+        <v>0.915674293490762</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>7131</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2528</v>
+        <v>2464</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16514</v>
+        <v>16789</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03005916587085173</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01065630621814325</v>
+        <v>0.01038583081445516</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06961371569795978</v>
+        <v>0.07077053213659951</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>99</v>
@@ -7133,19 +7133,19 @@
         <v>73398</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>58602</v>
+        <v>58281</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>88375</v>
+        <v>89407</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.08714743366708469</v>
+        <v>0.0871474336670847</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06957923392730887</v>
+        <v>0.06919904033806186</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1049303842292921</v>
+        <v>0.106154771472913</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>105</v>
@@ -7154,19 +7154,19 @@
         <v>80529</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>64047</v>
+        <v>65652</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>98457</v>
+        <v>97319</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07460136776491702</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05933273204843574</v>
+        <v>0.06081970892553425</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09120946142341191</v>
+        <v>0.09015589662362589</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>230097</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>220714</v>
+        <v>220439</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>234700</v>
+        <v>234764</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9699408341291483</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9303862843020402</v>
+        <v>0.9292294678634004</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9893436937818567</v>
+        <v>0.9896141691855447</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1057</v>
@@ -7204,19 +7204,19 @@
         <v>768830</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>753853</v>
+        <v>752821</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>783626</v>
+        <v>783947</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9128525663329153</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8950696157707081</v>
+        <v>0.893845228527087</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9304207660726913</v>
+        <v>0.9308009596619382</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1163</v>
@@ -7225,19 +7225,19 @@
         <v>998926</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>980998</v>
+        <v>982136</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1015408</v>
+        <v>1013803</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9253986322350829</v>
+        <v>0.925398632235083</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9087905385765878</v>
+        <v>0.9098441033763741</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9406672679515643</v>
+        <v>0.9391802910744659</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>151938</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>130143</v>
+        <v>126540</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>180457</v>
+        <v>179466</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04418247536843325</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03784457908655478</v>
+        <v>0.03679688965930848</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05247560531254928</v>
+        <v>0.05218718579231348</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>598</v>
@@ -7350,19 +7350,19 @@
         <v>406028</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>375361</v>
+        <v>373754</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>438506</v>
+        <v>438589</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.111839393184505</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.103392410928826</v>
+        <v>0.1029497215531857</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1207853761915456</v>
+        <v>0.1208082270583192</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>750</v>
@@ -7371,19 +7371,19 @@
         <v>557966</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>513012</v>
+        <v>519416</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>600296</v>
+        <v>603342</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07892764685547095</v>
+        <v>0.07892764685547093</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07256857419957705</v>
+        <v>0.07347445151890399</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08491551869474691</v>
+        <v>0.08534630370842765</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3286944</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3258425</v>
+        <v>3259416</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3308739</v>
+        <v>3312342</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9558175246315668</v>
+        <v>0.9558175246315667</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9475243946874511</v>
+        <v>0.9478128142076868</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9621554209134453</v>
+        <v>0.9632031103406914</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4639</v>
@@ -7421,19 +7421,19 @@
         <v>3224425</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3191947</v>
+        <v>3191864</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3255092</v>
+        <v>3256699</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.888160606815495</v>
+        <v>0.8881606068154951</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8792146238084543</v>
+        <v>0.8791917729416809</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.896607589071174</v>
+        <v>0.8970502784468143</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7784</v>
@@ -7442,19 +7442,19 @@
         <v>6511370</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6469040</v>
+        <v>6465994</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6556324</v>
+        <v>6549920</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9210723531445292</v>
+        <v>0.9210723531445291</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.915084481305253</v>
+        <v>0.9146536962915726</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9274314258004227</v>
+        <v>0.926525548481096</v>
       </c>
     </row>
     <row r="24">
